--- a/biology/Botanique/Tasmannia/Tasmannia.xlsx
+++ b/biology/Botanique/Tasmannia/Tasmannia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tasmannia est un genre de buissons angiospermes à feuillage vivace de la famille des Winteraceae. Ces plantes sont originaires d'Australie, de Nouvelle-Guinée, de Sulawesi, de Bornéo et des Philippines.
 Les Winteraceae sont des dicotylédones primitives (paléodicotylédones) et sont considérées comme faisant partie des plus anciennes plantes à fleurs à cause de leur anatomie florale et de la structure de leurs bois.
-Les plantes de cette famille ont généralement une écorce et des feuilles aromatiques et quelques-unes sont utilisées pour leurs huiles essentielles. Les fruits et les feuilles séchées au goût et odeur de poivre voient leur utilisation augmenter comme condiment en Australie. Le goût piquant perçu lors de la consommation de poivre de Tasmanie est dû à une molécule appelée polygodial[1].
+Les plantes de cette famille ont généralement une écorce et des feuilles aromatiques et quelques-unes sont utilisées pour leurs huiles essentielles. Les fruits et les feuilles séchées au goût et odeur de poivre voient leur utilisation augmenter comme condiment en Australie. Le goût piquant perçu lors de la consommation de poivre de Tasmanie est dû à une molécule appelée polygodial.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tasmannia glaucifolia
 Tasmannia insipida DC.
